--- a/data/pca/factorExposure/factorExposure_2013-01-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007490529802376328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001802362144923214</v>
+      </c>
+      <c r="C2">
+        <v>-0.03194043931800045</v>
+      </c>
+      <c r="D2">
+        <v>0.00609047152354922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0002566385134287874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006329922381418703</v>
+      </c>
+      <c r="C4">
+        <v>-0.0841117334932063</v>
+      </c>
+      <c r="D4">
+        <v>0.08056854152833527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003559925383556079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01421448066261494</v>
+      </c>
+      <c r="C6">
+        <v>-0.1129748112261183</v>
+      </c>
+      <c r="D6">
+        <v>0.03276850977938735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002097900534226244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005075680268702895</v>
+      </c>
+      <c r="C7">
+        <v>-0.05805322514314702</v>
+      </c>
+      <c r="D7">
+        <v>0.03148381269160789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007363774090122911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005753695091617253</v>
+      </c>
+      <c r="C8">
+        <v>-0.03781335275378952</v>
+      </c>
+      <c r="D8">
+        <v>0.0423464275145569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003205878385415197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004482146351806512</v>
+      </c>
+      <c r="C9">
+        <v>-0.07038348269365034</v>
+      </c>
+      <c r="D9">
+        <v>0.07178385864773142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002180690169719406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005401716392894351</v>
+      </c>
+      <c r="C10">
+        <v>-0.05809425529427449</v>
+      </c>
+      <c r="D10">
+        <v>-0.1954690367760675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002670295382979929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005806582142307572</v>
+      </c>
+      <c r="C11">
+        <v>-0.08050133809306445</v>
+      </c>
+      <c r="D11">
+        <v>0.06036984187694116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004273295636767674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004126610047006472</v>
+      </c>
+      <c r="C12">
+        <v>-0.06442406657076694</v>
+      </c>
+      <c r="D12">
+        <v>0.0468371084544742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002049092356023356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008881838497578827</v>
+      </c>
+      <c r="C13">
+        <v>-0.06712953301248926</v>
+      </c>
+      <c r="D13">
+        <v>0.05909152927056887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009362759290797387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001612237720562802</v>
+      </c>
+      <c r="C14">
+        <v>-0.04545621003166662</v>
+      </c>
+      <c r="D14">
+        <v>0.008391494688934787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.000670820261445681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006064221657125383</v>
+      </c>
+      <c r="C15">
+        <v>-0.04209439971668854</v>
+      </c>
+      <c r="D15">
+        <v>0.02815500637295076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009136641400773228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005102005464040908</v>
+      </c>
+      <c r="C16">
+        <v>-0.0655422295590241</v>
+      </c>
+      <c r="D16">
+        <v>0.04790138398328465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.000142532697906247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008975193449105542</v>
+      </c>
+      <c r="C20">
+        <v>-0.06551732606983841</v>
+      </c>
+      <c r="D20">
+        <v>0.04122021079591137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005707558442451216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01004508467201146</v>
+      </c>
+      <c r="C21">
+        <v>-0.02137234335784538</v>
+      </c>
+      <c r="D21">
+        <v>0.03674806291306862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01673665065832649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006724962790576799</v>
+      </c>
+      <c r="C22">
+        <v>-0.09361624602571809</v>
+      </c>
+      <c r="D22">
+        <v>0.1141988944596855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01703797710066194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006541391731520159</v>
+      </c>
+      <c r="C23">
+        <v>-0.0944367607319397</v>
+      </c>
+      <c r="D23">
+        <v>0.1142182240382142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00135298146290151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005509509881900703</v>
+      </c>
+      <c r="C24">
+        <v>-0.07663438264013768</v>
+      </c>
+      <c r="D24">
+        <v>0.06118300516315726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003881932227480115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003075308715124302</v>
+      </c>
+      <c r="C25">
+        <v>-0.07878204863382601</v>
+      </c>
+      <c r="D25">
+        <v>0.06689068934454236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004809452128560101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003674908171448431</v>
+      </c>
+      <c r="C26">
+        <v>-0.04138930420321699</v>
+      </c>
+      <c r="D26">
+        <v>0.02057269818880736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00540682734975646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0008360862527321936</v>
+      </c>
+      <c r="C28">
+        <v>-0.1074791956293699</v>
+      </c>
+      <c r="D28">
+        <v>-0.317173533072282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.00103142762133285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003218819119969181</v>
+      </c>
+      <c r="C29">
+        <v>-0.04924315223844715</v>
+      </c>
+      <c r="D29">
+        <v>0.005775968840607035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003461658389138224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009533498086687841</v>
+      </c>
+      <c r="C30">
+        <v>-0.1423532593710274</v>
+      </c>
+      <c r="D30">
+        <v>0.09657307796374318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001166264876951558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006296017011502524</v>
+      </c>
+      <c r="C31">
+        <v>-0.04464626197951897</v>
+      </c>
+      <c r="D31">
+        <v>0.0306010476616798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006037701149385434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004172233626031286</v>
+      </c>
+      <c r="C32">
+        <v>-0.04070288583549536</v>
+      </c>
+      <c r="D32">
+        <v>0.02096231328848784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002685405616504259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008425616066301152</v>
+      </c>
+      <c r="C33">
+        <v>-0.08540606345171814</v>
+      </c>
+      <c r="D33">
+        <v>0.06656646419934356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004335502560012045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003984979058294568</v>
+      </c>
+      <c r="C34">
+        <v>-0.05787384090055374</v>
+      </c>
+      <c r="D34">
+        <v>0.05323364454017437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001400207295515782</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005044057100704795</v>
+      </c>
+      <c r="C35">
+        <v>-0.04047758232298437</v>
+      </c>
+      <c r="D35">
+        <v>0.01586119318043484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003638783337384981</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001115482531430532</v>
+      </c>
+      <c r="C36">
+        <v>-0.02443526675044397</v>
+      </c>
+      <c r="D36">
+        <v>0.02194555863356695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002338808331915917</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009513037512338392</v>
+      </c>
+      <c r="C38">
+        <v>-0.0348810376678021</v>
+      </c>
+      <c r="D38">
+        <v>0.01540224300784771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01190345866447411</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0004891474354102634</v>
+      </c>
+      <c r="C39">
+        <v>-0.115936032626948</v>
+      </c>
+      <c r="D39">
+        <v>0.07306817464517949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01002089418989421</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002735501391771105</v>
+      </c>
+      <c r="C40">
+        <v>-0.09076684823357996</v>
+      </c>
+      <c r="D40">
+        <v>0.009950619755130227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001276870487252678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007241983564531411</v>
+      </c>
+      <c r="C41">
+        <v>-0.03797075261347629</v>
+      </c>
+      <c r="D41">
+        <v>0.03575976395378381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002857412070753639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004098116830169238</v>
+      </c>
+      <c r="C43">
+        <v>-0.05362511375117193</v>
+      </c>
+      <c r="D43">
+        <v>0.0247876235243038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004160807975048839</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003426341469919985</v>
+      </c>
+      <c r="C44">
+        <v>-0.1088826516276377</v>
+      </c>
+      <c r="D44">
+        <v>0.06901549561010284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009716843992679989</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002242797275364183</v>
+      </c>
+      <c r="C46">
+        <v>-0.03362453726355843</v>
+      </c>
+      <c r="D46">
+        <v>0.03109480943509204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>7.190407157099384e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002715800109982962</v>
+      </c>
+      <c r="C47">
+        <v>-0.03697226768095951</v>
+      </c>
+      <c r="D47">
+        <v>0.02226699345043663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00364729536640385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006642034089380167</v>
+      </c>
+      <c r="C48">
+        <v>-0.03050056926297451</v>
+      </c>
+      <c r="D48">
+        <v>0.03145580856389867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01195758718667838</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01543511904790942</v>
+      </c>
+      <c r="C49">
+        <v>-0.1841646909040128</v>
+      </c>
+      <c r="D49">
+        <v>0.01262363266975149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001616489083253268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003655285566245187</v>
+      </c>
+      <c r="C50">
+        <v>-0.04332570525175033</v>
+      </c>
+      <c r="D50">
+        <v>0.03524807895201519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007521824780256312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004469758950860679</v>
+      </c>
+      <c r="C51">
+        <v>-0.02642578897683976</v>
+      </c>
+      <c r="D51">
+        <v>0.01982245823061893</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008449176820857468</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02105217318418723</v>
+      </c>
+      <c r="C53">
+        <v>-0.1692536971060999</v>
+      </c>
+      <c r="D53">
+        <v>0.02717794707531968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001212286919187828</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008773675978383003</v>
+      </c>
+      <c r="C54">
+        <v>-0.05425452146675262</v>
+      </c>
+      <c r="D54">
+        <v>0.04419428770462321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003777395353606923</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009611327979757538</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082258162788305</v>
+      </c>
+      <c r="D55">
+        <v>0.03975554784568295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002752181589911723</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0202307577923041</v>
+      </c>
+      <c r="C56">
+        <v>-0.1738365547574448</v>
+      </c>
+      <c r="D56">
+        <v>0.02655087048169861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007006779416110683</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01975159757905685</v>
+      </c>
+      <c r="C58">
+        <v>-0.1117979465507107</v>
+      </c>
+      <c r="D58">
+        <v>0.04938303805361826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006734518018476379</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009844461949864356</v>
+      </c>
+      <c r="C59">
+        <v>-0.1634475196343933</v>
+      </c>
+      <c r="D59">
+        <v>-0.3206428676519129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003859485438106315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02414474814815972</v>
+      </c>
+      <c r="C60">
+        <v>-0.2218764681563585</v>
+      </c>
+      <c r="D60">
+        <v>0.03539974356941839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01357837509411017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001659944164425857</v>
+      </c>
+      <c r="C61">
+        <v>-0.09525794216275341</v>
+      </c>
+      <c r="D61">
+        <v>0.05605559583813266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637323099302214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449777690662742</v>
+      </c>
+      <c r="C62">
+        <v>-0.09193794991065631</v>
+      </c>
+      <c r="D62">
+        <v>0.04406613324772949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007729988503288984</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00634393489517742</v>
+      </c>
+      <c r="C63">
+        <v>-0.05524226229384482</v>
+      </c>
+      <c r="D63">
+        <v>0.02545238871567724</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0004658549989553553</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01542101815450557</v>
+      </c>
+      <c r="C64">
+        <v>-0.1053368857401777</v>
+      </c>
+      <c r="D64">
+        <v>0.05873063458554828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002916673212268212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01802469110158992</v>
+      </c>
+      <c r="C65">
+        <v>-0.1230506612287287</v>
+      </c>
+      <c r="D65">
+        <v>0.0189591461579868</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007711741941381725</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01321447864035763</v>
+      </c>
+      <c r="C66">
+        <v>-0.1604345059835697</v>
+      </c>
+      <c r="D66">
+        <v>0.1128416539374386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003607438392977768</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01570904347280374</v>
+      </c>
+      <c r="C67">
+        <v>-0.06568847637933796</v>
+      </c>
+      <c r="D67">
+        <v>0.027356768142121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006248881788447049</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007002066508278335</v>
+      </c>
+      <c r="C68">
+        <v>-0.08696801284053074</v>
+      </c>
+      <c r="D68">
+        <v>-0.2590141252151151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002233482843457599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006219905006329241</v>
+      </c>
+      <c r="C69">
+        <v>-0.05032127300230715</v>
+      </c>
+      <c r="D69">
+        <v>0.03925090798789507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003117005903150446</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001857764113478004</v>
+      </c>
+      <c r="C70">
+        <v>-0.002470056054906731</v>
+      </c>
+      <c r="D70">
+        <v>0.003099922814695728</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001701971322283872</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005913403598588739</v>
+      </c>
+      <c r="C71">
+        <v>-0.09636313288259034</v>
+      </c>
+      <c r="D71">
+        <v>-0.3071047067723142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003863690267355132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01622396116746792</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529994431839658</v>
+      </c>
+      <c r="D72">
+        <v>0.01995435293822003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01155091699599138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03100682824983488</v>
+      </c>
+      <c r="C73">
+        <v>-0.2794641449925059</v>
+      </c>
+      <c r="D73">
+        <v>0.0568308006793278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004643701050984044</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002109015249732457</v>
+      </c>
+      <c r="C74">
+        <v>-0.1051609336233372</v>
+      </c>
+      <c r="D74">
+        <v>0.03640670776116176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002583633923666701</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01105856441156302</v>
+      </c>
+      <c r="C75">
+        <v>-0.1246425482394955</v>
+      </c>
+      <c r="D75">
+        <v>0.02292698234477831</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009158927247258954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02192767940590152</v>
+      </c>
+      <c r="C76">
+        <v>-0.1484045627794709</v>
+      </c>
+      <c r="D76">
+        <v>0.06063075070774272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001601825198008439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02369229644621723</v>
+      </c>
+      <c r="C77">
+        <v>-0.1239359588770952</v>
+      </c>
+      <c r="D77">
+        <v>0.08733421495655536</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0002181642809163023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01480816408051192</v>
+      </c>
+      <c r="C78">
+        <v>-0.09662190201893772</v>
+      </c>
+      <c r="D78">
+        <v>0.06865762875108627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02289574148249125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03787064341714953</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561374292686218</v>
+      </c>
+      <c r="D79">
+        <v>0.03384241398825012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006604417962758278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01045143697608201</v>
+      </c>
+      <c r="C80">
+        <v>-0.04023100305601304</v>
+      </c>
+      <c r="D80">
+        <v>0.02816686030351534</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001279480851841713</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01543692811567201</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269279062343933</v>
+      </c>
+      <c r="D81">
+        <v>0.03927987007204354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006035611892946401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0199702865606712</v>
+      </c>
+      <c r="C82">
+        <v>-0.1411839959436728</v>
+      </c>
+      <c r="D82">
+        <v>0.03861403786580892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00848280880399851</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01005645767295006</v>
+      </c>
+      <c r="C83">
+        <v>-0.05628192679506967</v>
+      </c>
+      <c r="D83">
+        <v>0.05493995751394599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01297218742206703</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01173971275652462</v>
+      </c>
+      <c r="C84">
+        <v>-0.03718116842868364</v>
+      </c>
+      <c r="D84">
+        <v>-0.01012642479837842</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01404510317141876</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02831450729319531</v>
+      </c>
+      <c r="C85">
+        <v>-0.1237306721823347</v>
+      </c>
+      <c r="D85">
+        <v>0.04386604294736188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001748779343966585</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006056536324364778</v>
+      </c>
+      <c r="C86">
+        <v>-0.05134747581725615</v>
+      </c>
+      <c r="D86">
+        <v>0.02682459535633235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00440542507014676</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01021113668070639</v>
+      </c>
+      <c r="C87">
+        <v>-0.1292918032588776</v>
+      </c>
+      <c r="D87">
+        <v>0.07395962220424269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01173993088179119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002844342212327166</v>
+      </c>
+      <c r="C88">
+        <v>-0.06573540940192558</v>
+      </c>
+      <c r="D88">
+        <v>0.01738720312188739</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01375666901002982</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001205699214139692</v>
+      </c>
+      <c r="C89">
+        <v>-0.1470018597569732</v>
+      </c>
+      <c r="D89">
+        <v>-0.3384758528084714</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002108724188516224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.0071459143592623</v>
+      </c>
+      <c r="C90">
+        <v>-0.121521726248118</v>
+      </c>
+      <c r="D90">
+        <v>-0.318840165250767</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005880759952819718</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01053643423546401</v>
+      </c>
+      <c r="C91">
+        <v>-0.1014364172337109</v>
+      </c>
+      <c r="D91">
+        <v>0.01969059811128789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007658496817747808</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001084894533354845</v>
+      </c>
+      <c r="C92">
+        <v>-0.1361068484962952</v>
+      </c>
+      <c r="D92">
+        <v>-0.3274685736473417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-5.601804273284133e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004985807634102777</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054250325656916</v>
+      </c>
+      <c r="D93">
+        <v>-0.3022590650147571</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003351615338443093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02261831073964998</v>
+      </c>
+      <c r="C94">
+        <v>-0.1462247603555631</v>
+      </c>
+      <c r="D94">
+        <v>0.05490059587370508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004589818385285238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01663221260082445</v>
+      </c>
+      <c r="C95">
+        <v>-0.1277718713464404</v>
+      </c>
+      <c r="D95">
+        <v>0.05518272350147596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0001827137998185094</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03647750743359691</v>
+      </c>
+      <c r="C97">
+        <v>-0.214677653693511</v>
+      </c>
+      <c r="D97">
+        <v>-0.01187757503123373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002857353127245586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03675057601110084</v>
+      </c>
+      <c r="C98">
+        <v>-0.2486949024268183</v>
+      </c>
+      <c r="D98">
+        <v>0.0493842790153731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847796901086036</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9820799745373847</v>
+      </c>
+      <c r="C99">
+        <v>0.117243443680451</v>
+      </c>
+      <c r="D99">
+        <v>-0.02705301898654312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009294383013497255</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003256455236565047</v>
+      </c>
+      <c r="C101">
+        <v>-0.04941905073487581</v>
+      </c>
+      <c r="D101">
+        <v>0.005917944262438677</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
